--- a/test/functional/xlsx_files/repeat02.xlsx
+++ b/test/functional/xlsx_files/repeat02.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -363,7 +363,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="200"/>
 </worksheet>
 </file>